--- a/data/trans_dic/P12_2_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,9; 20,86</t>
+          <t>13,56; 20,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,97; 19,1</t>
+          <t>11,83; 19,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,01; 16,64</t>
+          <t>10,32; 16,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,21; 19,89</t>
+          <t>13,1; 19,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,88; 31,59</t>
+          <t>21,6; 31,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,23; 25,56</t>
+          <t>16,66; 26,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,05; 17,6</t>
+          <t>9,86; 17,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,65; 20,81</t>
+          <t>14,73; 21,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,86; 23,58</t>
+          <t>18,12; 24,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,98; 20,84</t>
+          <t>14,9; 20,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,02; 16,05</t>
+          <t>10,93; 16,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,82; 19,34</t>
+          <t>14,7; 19,13</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,57; 20,9</t>
+          <t>12,57; 20,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,06; 21,24</t>
+          <t>13,26; 21,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,69; 11,81</t>
+          <t>5,77; 11,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,84; 17,35</t>
+          <t>10,59; 17,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,66; 29,66</t>
+          <t>20,54; 29,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,71; 27,19</t>
+          <t>18,06; 27,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,24; 21,72</t>
+          <t>13,33; 21,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,18; 24,81</t>
+          <t>17,95; 24,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,86; 24,17</t>
+          <t>17,56; 23,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,18; 22,63</t>
+          <t>16,22; 22,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,18; 15,12</t>
+          <t>10,28; 15,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,02; 20,04</t>
+          <t>14,9; 19,68</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,63; 23,37</t>
+          <t>16,29; 23,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,37; 22,87</t>
+          <t>16,24; 22,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,53; 21,64</t>
+          <t>14,48; 21,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 18,14</t>
+          <t>3,64; 18,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,91; 35,8</t>
+          <t>22,22; 36,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,48; 29,15</t>
+          <t>18,61; 29,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,79; 28,68</t>
+          <t>14,87; 28,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,19; 31,96</t>
+          <t>20,81; 32,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,98; 24,93</t>
+          <t>18,68; 24,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,96; 23,49</t>
+          <t>18,16; 23,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,64; 21,82</t>
+          <t>15,87; 22,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,31; 21,16</t>
+          <t>5,81; 20,63</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,13; 25,97</t>
+          <t>21,37; 26,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,86; 21,72</t>
+          <t>17,08; 21,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,48; 19,91</t>
+          <t>15,47; 19,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,03; 21,77</t>
+          <t>16,96; 21,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,02; 27,55</t>
+          <t>21,33; 27,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,2; 24,49</t>
+          <t>18,29; 24,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,61; 20,9</t>
+          <t>15,15; 20,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,49; 22,79</t>
+          <t>8,84; 22,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,15; 25,93</t>
+          <t>22,1; 25,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,14; 21,81</t>
+          <t>18,36; 22,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,19; 19,65</t>
+          <t>16,01; 19,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,1; 21,15</t>
+          <t>13,19; 21,27</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,38; 26,19</t>
+          <t>17,75; 26,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,51; 21,14</t>
+          <t>14,24; 21,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,65; 24,07</t>
+          <t>17,38; 23,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,81; 25,49</t>
+          <t>17,87; 25,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,56; 36,64</t>
+          <t>28,63; 36,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,43; 34,42</t>
+          <t>27,34; 34,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,54; 32,45</t>
+          <t>25,66; 32,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,4; 29,44</t>
+          <t>18,85; 29,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,24; 31,3</t>
+          <t>25,13; 31,16</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23,07; 28,11</t>
+          <t>23,1; 28,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22,74; 27,24</t>
+          <t>22,71; 27,36</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,68; 26,61</t>
+          <t>19,44; 26,6</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,41; 10,76</t>
+          <t>4,58; 10,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,56; 11,47</t>
+          <t>4,45; 11,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,51; 11,09</t>
+          <t>4,58; 10,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,24; 11,05</t>
+          <t>2,27; 11,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,43; 36,48</t>
+          <t>31,21; 36,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,54; 30,22</t>
+          <t>24,53; 30,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,4; 28,09</t>
+          <t>22,74; 28,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,13; 25,37</t>
+          <t>20,36; 25,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,39; 30,95</t>
+          <t>26,41; 30,94</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>21,22; 25,92</t>
+          <t>21,22; 25,82</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>19,35; 23,69</t>
+          <t>19,33; 23,8</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,4; 21,19</t>
+          <t>16,25; 20,84</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,11; 20,89</t>
+          <t>18,23; 21,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,98; 18,6</t>
+          <t>15,93; 18,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,31; 16,8</t>
+          <t>14,47; 16,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,59; 17,44</t>
+          <t>12,07; 17,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,19; 31,31</t>
+          <t>28,2; 31,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,84; 27,07</t>
+          <t>23,87; 26,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,72; 23,56</t>
+          <t>20,77; 23,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,56; 23,29</t>
+          <t>17,14; 23,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,55; 25,69</t>
+          <t>23,63; 25,74</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,48; 22,5</t>
+          <t>20,52; 22,46</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,03; 19,96</t>
+          <t>18,01; 19,86</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,17; 20,06</t>
+          <t>16,15; 20,12</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que refirió mucha energía alguna vez o algunas veces</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>81633</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>66444</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>55954</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>81331</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>80253</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>65636</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>46935</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>79093</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>161885</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>132080</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>102888</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>160424</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>64265; 98707</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>51708; 84022</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>44293; 72207</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>66178; 97238</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>66240; 96173</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>52380; 82151</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>34212; 61254</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>65894; 93950</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>141400; 187445</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>111981; 154382</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>84851; 125028</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>140088; 182228</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>60341</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>70145</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>30695</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>61986</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>92834</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>75581</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>63845</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>81916</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>153175</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>145727</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>94540</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>143902</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>46108; 75604</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>55531; 88247</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>21703; 44110</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>47904; 77055</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>76390; 109340</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>61047; 92450</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>49473; 81524</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>68673; 95487</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>129705; 176322</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>122727; 170219</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>76875; 114917</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>124383; 164317</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>106349</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>122424</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>91822</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>73115</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>47983</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>61287</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>35663</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>43615</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>154332</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>183711</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>127484</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>116730</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>88371; 126600</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>102010; 143800</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>75384; 110422</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>24351; 122770</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>37286; 60398</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>48236; 75783</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24704; 48152</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>34622; 53673</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>132686; 174858</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>161135; 208233</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>109017; 152030</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>48483; 172169</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>294164</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>222623</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>201118</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>199306</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>174106</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>162699</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>149077</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>171398</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>468270</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>385322</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>350195</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>370704</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>264656; 325021</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>197796; 251816</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>177494; 228154</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>175390; 226370</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>152350; 197133</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>139839; 188990</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>124847; 170512</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>86459; 222265</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>431572; 506523</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>352912; 426258</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>315641; 387321</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>265288; 427915</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>75104</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>89777</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>127683</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>101045</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>184804</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>232718</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>213020</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>213784</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>259907</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>322496</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>340703</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>314829</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>62210; 92585</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>72700; 109052</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>107902; 148918</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>84881; 121588</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>162844; 207862</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>207976; 260968</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>189470; 240020</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>158434; 245905</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>230988; 286427</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>293637; 357198</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>308609; 371859</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>255677; 349932</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>20728</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>19161</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>21069</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>11829</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>422588</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>302475</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>272780</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>172974</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>443316</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>321636</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>293849</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>184802</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>13652; 31009</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>11846; 29550</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>13138; 31091</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5453; 27652</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>389707; 458252</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>271411; 332880</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>245322; 307263</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>154640; 192583</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>408606; 478646</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>291223; 354355</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>264031; 325081</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>162458; 208414</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>833</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>705</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1384</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1602</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1374</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1228</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2042</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>638319</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>590574</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>528341</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>528612</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1002566</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>900397</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>781319</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>762779</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1640885</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1490972</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1309659</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1291391</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>596270; 688309</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>544583; 642581</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>489155; 571031</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>407443; 586469</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>952715; 1060053</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>845875; 952726</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>732176; 835477</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>612495; 833104</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1571295; 1711058</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1428629; 1563961</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1244148; 1371708</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1122388; 1398319</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P12_2_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
